--- a/Lab7BOM.xlsx
+++ b/Lab7BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\EE345L Class\EE445LTeachingMaterials\0000_Fall_2024\0000_LAB_Documents_Fall24_GIT_UPLOADS\ECE445L-Lab7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\EE345L Class\EE445LTeachingMaterials\000000_COMMON_WEB_FILES\LabStarterFiles\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F7B4F4-2721-47F6-A250-E8BC7DBFEB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0916D-C1CF-441E-8622-EF1B303EE754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="90" windowWidth="28800" windowHeight="15225" xr2:uid="{2A746B91-5B93-4559-A98B-A0C4C3CDA5C8}"/>
+    <workbookView xWindow="5970" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{2A746B91-5B93-4559-A98B-A0C4C3CDA5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -1529,7 +1529,7 @@
     <t>JLCPCB</t>
   </si>
   <si>
-    <t>EE445L Fall 2024</t>
+    <t>ECE445L Spring 2025</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1537,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1658,7 +1658,7 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1671,7 +1671,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2098,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB64E12-2F57-4D15-BA8D-127B966BFCD4}">
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2123,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7">
-        <v>45514</v>
+        <v>45664</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>232</v>
